--- a/data_analysis/results.xlsx
+++ b/data_analysis/results.xlsx
@@ -498,9 +498,7 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0.7932877358343736</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -520,7 +518,9 @@
       <c r="D3" t="n">
         <v>-1.800000000000001</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0.7932877358343736</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -542,7 +542,9 @@
       <c r="D4" t="n">
         <v>-1.300000000000001</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0.5678371972275793</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -564,7 +566,9 @@
       <c r="D5" t="n">
         <v>-0.6999999999999993</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0.3481353994530251</v>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -586,7 +590,9 @@
       <c r="D6" t="n">
         <v>-3.5</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.1297047293510801</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>15.8</v>
@@ -610,7 +616,9 @@
       <c r="D7" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>-0.03578974325318723</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -632,7 +640,9 @@
       <c r="D8" t="n">
         <v>2.100000000000001</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>-0.1542273944029997</v>
+      </c>
       <c r="F8" t="n">
         <v>18.5</v>
       </c>
@@ -660,7 +670,9 @@
       <c r="D9" t="n">
         <v>-2.100000000000001</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>-0.2647742937089984</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>16.4</v>
@@ -688,7 +700,9 @@
       <c r="D10" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>-0.2981055999224276</v>
+      </c>
       <c r="F10" t="n">
         <v>16.7</v>
       </c>
@@ -716,7 +730,9 @@
       <c r="D11" t="n">
         <v>-1.6</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>-0.4070720053129336</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
@@ -742,7 +758,9 @@
       <c r="D12" t="n">
         <v>-0.5</v>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>-0.4619072956205355</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
@@ -768,7 +786,9 @@
       <c r="D13" t="n">
         <v>-3.299999999999999</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>-0.4218949207475994</v>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
         <v>11.3</v>
@@ -796,7 +816,9 @@
       <c r="D14" t="n">
         <v>0.09999999999999964</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>-0.2161196849119566</v>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
@@ -822,7 +844,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>-0.01817237519795514</v>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
@@ -848,7 +872,9 @@
       <c r="D16" t="n">
         <v>0.5999999999999996</v>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.2896068923640951</v>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
@@ -874,7 +900,9 @@
       <c r="D17" t="n">
         <v>2.300000000000001</v>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0.6354362747485967</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
@@ -900,7 +928,9 @@
       <c r="D18" t="n">
         <v>1.6</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.7155303535671966</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
@@ -926,7 +956,9 @@
       <c r="D19" t="n">
         <v>2.200000000000001</v>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0.7521841311792703</v>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
@@ -952,7 +984,9 @@
       <c r="D20" t="n">
         <v>1</v>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0.6253298866165407</v>
+      </c>
       <c r="F20" t="n">
         <v>19.1</v>
       </c>
@@ -980,7 +1014,9 @@
       <c r="D21" t="n">
         <v>-2.700000000000003</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0.5886335460277079</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
         <v>16.4</v>
@@ -1008,7 +1044,9 @@
       <c r="D22" t="n">
         <v>0.9000000000000021</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0.5294150133005039</v>
+      </c>
       <c r="F22" t="n">
         <v>17.3</v>
       </c>
@@ -1036,7 +1074,9 @@
       <c r="D23" t="n">
         <v>-0.4000000000000021</v>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.4038964773922247</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
@@ -1062,7 +1102,9 @@
       <c r="D24" t="n">
         <v>-1.499999999999998</v>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.4499052584827533</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
@@ -1088,7 +1130,9 @@
       <c r="D25" t="n">
         <v>-0.5</v>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0.6785546732941103</v>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
@@ -1114,7 +1158,9 @@
       <c r="D26" t="n">
         <v>-0.7000000000000011</v>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.4821027813634535</v>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
         <v>14.2</v>
@@ -1142,7 +1188,9 @@
       <c r="D27" t="n">
         <v>2.300000000000001</v>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>0.08990322543812743</v>
+      </c>
       <c r="F27" t="n">
         <v>16.5</v>
       </c>
@@ -1166,7 +1214,9 @@
       <c r="D28" t="n">
         <v>-3.5</v>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>-0.3442721865016974</v>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1188,7 +1238,9 @@
       <c r="D29" t="n">
         <v>-2.5</v>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>-0.7714291960450901</v>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1210,7 +1262,9 @@
       <c r="D30" t="n">
         <v>-0.9000000000000004</v>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>-0.8271272713246051</v>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
         <v>9.6</v>
@@ -1234,7 +1288,9 @@
       <c r="D31" t="n">
         <v>5.1</v>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
       <c r="F31" t="n">
         <v>14.7</v>
       </c>
